--- a/3_data_analysis/6_lipoprotein_correlation_with_metrics/lipoprotein_metrics_correlation_dm.xlsx
+++ b/3_data_analysis/6_lipoprotein_correlation_with_metrics/lipoprotein_metrics_correlation_dm.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">variable_id</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">maxcimt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plaque_present</t>
   </si>
   <si>
     <t xml:space="preserve">HDTG</t>
@@ -566,101 +569,121 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" t="n">
-        <v>-0.435575278062452</v>
+        <v>-0.395073894191894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0181877724158527</v>
+        <v>0.0339128912849093</v>
       </c>
       <c r="E8" t="n">
-        <v>0.656093326720553</v>
+        <v>0.968370560504448</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.40502588073228</v>
+        <v>-0.435575278062452</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0292898806571675</v>
+        <v>0.0181877724158527</v>
       </c>
       <c r="E9" t="n">
         <v>0.656093326720553</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.456449430592199</v>
+        <v>-0.40502588073228</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0128141248490656</v>
+        <v>0.0292898806571675</v>
       </c>
       <c r="E10" t="n">
         <v>0.656093326720553</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.40675044348479</v>
+        <v>-0.456449430592199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0285433913948545</v>
+        <v>0.0128141248490656</v>
       </c>
       <c r="E11" t="n">
         <v>0.656093326720553</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.40675044348479</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0285433913948545</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.656093326720553</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
         <v>-0.572449482503697</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>0.00117439493901398</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E13" t="n">
         <v>0.131532233169566</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
     </row>
